--- a/serp-version-1.xlsx
+++ b/serp-version-1.xlsx
@@ -674,6 +674,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -934,11 +935,11 @@
   </sheetPr>
   <dimension ref="A2:O116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1001,14 +1002,14 @@
       </c>
       <c r="L3" s="8" t="n">
         <f aca="false">AVERAGE(I7:I116)</f>
-        <v>0.822912698412698</v>
+        <v>1.18850396825397</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="8" t="n">
         <f aca="false">AVERAGE(O7:O116)</f>
-        <v>0.906999057674762</v>
+        <v>0.878689030753529</v>
       </c>
       <c r="O3" s="8"/>
     </row>
@@ -1116,11 +1117,11 @@
       </c>
       <c r="I7" s="17" t="n">
         <f aca="false">AVERAGE(H7:H16)</f>
-        <v>1</v>
+        <v>1.15912698412698</v>
       </c>
       <c r="J7" s="21" t="n">
         <f aca="false">SUM(G7:G16)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">(G7/LOG((C7+1),2))</f>
@@ -1128,7 +1129,7 @@
       </c>
       <c r="L7" s="17" t="n">
         <f aca="false">SUM(K7:K16)</f>
-        <v>4.54355933808835</v>
+        <v>5.5756841587488</v>
       </c>
       <c r="M7" s="19" t="n">
         <f aca="false">(G7/LOG((E7+1),2))</f>
@@ -1136,11 +1137,11 @@
       </c>
       <c r="N7" s="17" t="n">
         <f aca="false">SUM(M7:M16)</f>
-        <v>4.54355933808835</v>
+        <v>6.50782242499314</v>
       </c>
       <c r="O7" s="17" t="n">
         <f aca="false">L7/N7</f>
-        <v>1</v>
+        <v>0.856766487256246</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,22 +1264,22 @@
         <v>30</v>
       </c>
       <c r="G11" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="19" t="n">
         <f aca="false">SUM(G$7:G11)/COUNT(G$7:G11)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="0" t="n">
         <f aca="false">(G11/LOG((C11+1),2))</f>
-        <v>0.386852807234542</v>
+        <v>0.773705614469083</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="19" t="n">
         <f aca="false">(G11/LOG((E11+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -1298,22 +1299,22 @@
         <v>31</v>
       </c>
       <c r="G12" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="19" t="n">
         <f aca="false">SUM(G$7:G12)/COUNT(G$7:G12)</f>
-        <v>1</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="0" t="n">
         <f aca="false">(G12/LOG((C12+1),2))</f>
-        <v>0.356207187108022</v>
+        <v>0.712414374216044</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="19" t="n">
         <f aca="false">(G12/LOG((E12+1),2))</f>
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="H13" s="19" t="n">
         <f aca="false">SUM(G$7:G13)/COUNT(G$7:G13)</f>
-        <v>1</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="H14" s="19" t="n">
         <f aca="false">SUM(G$7:G14)/COUNT(G$7:G14)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -1407,7 +1408,7 @@
       </c>
       <c r="H15" s="19" t="n">
         <f aca="false">SUM(G$7:G15)/COUNT(G$7:G15)</f>
-        <v>1</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -1438,22 +1439,22 @@
         <v>35</v>
       </c>
       <c r="G16" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="19" t="n">
         <f aca="false">SUM(G$7:G16)/COUNT(G$7:G16)</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="0" t="n">
         <f aca="false">(G16/LOG((C16+1),2))</f>
-        <v>0.289064826317888</v>
+        <v>0.578129652635776</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="19" t="n">
         <f aca="false">(G16/LOG((E16+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -1884,39 +1885,39 @@
         <v>48</v>
       </c>
       <c r="G29" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$29:G29)/COUNT(G$29:$G29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="17" t="n">
         <f aca="false">AVERAGE(H29:H38)</f>
-        <v>0.693253968253968</v>
+        <v>1.32194444444444</v>
       </c>
       <c r="J29" s="17" t="n">
         <f aca="false">SUM(G29:G38)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K29" s="0" t="n">
         <f aca="false">(G29/LOG((C29+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="17" t="n">
         <f aca="false">SUM(K29:K38)</f>
-        <v>2.48713694067948</v>
+        <v>4.61806669425094</v>
       </c>
       <c r="M29" s="19" t="n">
         <f aca="false">(G29/LOG((E29+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="17" t="n">
         <f aca="false">SUM(M29:M38)</f>
-        <v>2.56160631164485</v>
+        <v>4.69253606521631</v>
       </c>
       <c r="O29" s="17" t="n">
         <f aca="false">L29/N29</f>
-        <v>0.970928643239658</v>
+        <v>0.984130250693782</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,22 +1935,22 @@
         <v>49</v>
       </c>
       <c r="G30" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$29:G30)/COUNT(G$29:$G30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="0" t="n">
         <f aca="false">(G30/LOG((C30+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="19" t="n">
         <f aca="false">(G30/LOG((E30+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
@@ -1969,22 +1970,22 @@
         <v>50</v>
       </c>
       <c r="G31" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$29:G31)/COUNT(G$29:$G31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="0" t="n">
         <f aca="false">(G31/LOG((C31+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="19" t="n">
         <f aca="false">(G31/LOG((E31+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
@@ -2008,7 +2009,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$29:G32)/COUNT(G$29:$G32)</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -2043,7 +2044,7 @@
       </c>
       <c r="H33" s="19" t="n">
         <f aca="false">SUM(G$29:G33)/COUNT(G$29:$G33)</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="H34" s="19" t="n">
         <f aca="false">SUM(G$29:G34)/COUNT(G$29:$G34)</f>
-        <v>0.666666666666667</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -2113,7 +2114,7 @@
       </c>
       <c r="H35" s="19" t="n">
         <f aca="false">SUM(G$29:G35)/COUNT(G$29:$G35)</f>
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -2148,7 +2149,7 @@
       </c>
       <c r="H36" s="19" t="n">
         <f aca="false">SUM(G$29:G36)/COUNT(G$29:$G36)</f>
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -2183,7 +2184,7 @@
       </c>
       <c r="H37" s="19" t="n">
         <f aca="false">SUM(G$29:G37)/COUNT(G$29:$G37)</f>
-        <v>0.444444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -2218,7 +2219,7 @@
       </c>
       <c r="H38" s="19" t="n">
         <f aca="false">SUM(G$29:G38)/COUNT(G$29:$G38)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -2272,39 +2273,39 @@
         <v>59</v>
       </c>
       <c r="G40" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="19" t="n">
         <f aca="false">SUM(G$40:G40)/COUNT(G$40:G40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="17" t="n">
         <f aca="false">AVERAGE(H40:H49)</f>
-        <v>0.579642857142857</v>
+        <v>1.1156746031746</v>
       </c>
       <c r="J40" s="17" t="n">
         <f aca="false">SUM(G40:G49)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K40" s="0" t="n">
         <f aca="false">(G40/LOG((C40+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="17" t="n">
         <f aca="false">SUM(K40:K49)</f>
-        <v>3.02577677728235</v>
+        <v>5.44702385146108</v>
       </c>
       <c r="M40" s="19" t="n">
         <f aca="false">(G40/LOG((E40+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="17" t="n">
         <f aca="false">SUM(M40:M49)</f>
-        <v>3.63799963932075</v>
+        <v>6.55581313807362</v>
       </c>
       <c r="O40" s="17" t="n">
         <f aca="false">L40/N40</f>
-        <v>0.831714424756592</v>
+        <v>0.830869296720322</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2327,7 @@
       </c>
       <c r="H41" s="19" t="n">
         <f aca="false">SUM(G$40:G41)/COUNT(G$40:G41)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -2361,7 +2362,7 @@
       </c>
       <c r="H42" s="19" t="n">
         <f aca="false">SUM(G$40:G42)/COUNT(G$40:G42)</f>
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -2392,22 +2393,22 @@
         <v>62</v>
       </c>
       <c r="G43" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="19" t="n">
         <f aca="false">SUM(G$40:G43)/COUNT(G$40:G43)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="0" t="n">
         <f aca="false">(G43/LOG((C43+1),2))</f>
-        <v>0.430676558073393</v>
+        <v>0.861353116146786</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="19" t="n">
         <f aca="false">(G43/LOG((E43+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
@@ -2431,7 +2432,7 @@
       </c>
       <c r="H44" s="19" t="n">
         <f aca="false">SUM(G$40:G44)/COUNT(G$40:G44)</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -2462,22 +2463,22 @@
         <v>64</v>
       </c>
       <c r="G45" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="19" t="n">
         <f aca="false">SUM(G$40:G45)/COUNT(G$40:G45)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="0" t="n">
         <f aca="false">(G45/LOG((C45+1),2))</f>
-        <v>0.356207187108022</v>
+        <v>0.712414374216044</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="19" t="n">
         <f aca="false">(G45/LOG((E45+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
@@ -2497,22 +2498,22 @@
         <v>65</v>
       </c>
       <c r="G46" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="19" t="n">
         <f aca="false">SUM(G$40:G46)/COUNT(G$40:G46)</f>
-        <v>0.571428571428571</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="0" t="n">
         <f aca="false">(G46/LOG((C46+1),2))</f>
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="19" t="n">
         <f aca="false">(G46/LOG((E46+1),2))</f>
-        <v>0.430676558073393</v>
+        <v>0.861353116146786</v>
       </c>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="H47" s="19" t="n">
         <f aca="false">SUM(G$40:G47)/COUNT(G$40:G47)</f>
-        <v>0.625</v>
+        <v>1.125</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -2567,22 +2568,22 @@
         <v>67</v>
       </c>
       <c r="G48" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="19" t="n">
         <f aca="false">SUM(G$40:G48)/COUNT(G$40:G48)</f>
-        <v>0.666666666666667</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
       <c r="K48" s="0" t="n">
         <f aca="false">(G48/LOG((C48+1),2))</f>
-        <v>0.301029995663981</v>
+        <v>0.602059991327962</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="19" t="n">
         <f aca="false">(G48/LOG((E48+1),2))</f>
-        <v>0.356207187108022</v>
+        <v>0.712414374216044</v>
       </c>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
@@ -2606,7 +2607,7 @@
       </c>
       <c r="H49" s="19" t="n">
         <f aca="false">SUM(G$40:G49)/COUNT(G$40:G49)</f>
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -2660,39 +2661,39 @@
         <v>70</v>
       </c>
       <c r="G51" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="19" t="n">
         <f aca="false">SUM(G$51:G51)/COUNT(G$51:G51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="17" t="n">
         <f aca="false">AVERAGE(H51:H60)</f>
-        <v>0.966388888888889</v>
+        <v>1.85376984126984</v>
       </c>
       <c r="J51" s="17" t="n">
         <f aca="false">SUM(G51:G60)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K51" s="0" t="n">
         <f aca="false">(G51/LOG((C51+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="17" t="n">
         <f aca="false">SUM(K51:K60)</f>
-        <v>4.22809446130262</v>
+        <v>7.53276076729003</v>
       </c>
       <c r="M51" s="19" t="n">
         <f aca="false">(G51/LOG((E51+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" s="17" t="n">
         <f aca="false">SUM(M51:M60)</f>
-        <v>4.25449451177046</v>
+        <v>7.55916081775787</v>
       </c>
       <c r="O51" s="17" t="n">
         <f aca="false">L51/N51</f>
-        <v>0.993794785633216</v>
+        <v>0.996507542159201</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,22 +2711,22 @@
         <v>71</v>
       </c>
       <c r="G52" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="19" t="n">
         <f aca="false">SUM(G$51:G52)/COUNT(G$51:G52)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="0" t="n">
         <f aca="false">(G52/LOG((C52+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="19" t="n">
         <f aca="false">(G52/LOG((E52+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
@@ -2745,22 +2746,22 @@
         <v>72</v>
       </c>
       <c r="G53" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="19" t="n">
         <f aca="false">SUM(G$51:G53)/COUNT(G$51:G53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="0" t="n">
         <f aca="false">(G53/LOG((C53+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L53" s="17"/>
       <c r="M53" s="19" t="n">
         <f aca="false">(G53/LOG((E53+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
@@ -2780,22 +2781,22 @@
         <v>73</v>
       </c>
       <c r="G54" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="19" t="n">
         <f aca="false">SUM(G$51:G54)/COUNT(G$51:G54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="0" t="n">
         <f aca="false">(G54/LOG((C54+1),2))</f>
-        <v>0.430676558073393</v>
+        <v>0.861353116146786</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="19" t="n">
         <f aca="false">(G54/LOG((E54+1),2))</f>
-        <v>0.430676558073393</v>
+        <v>0.861353116146786</v>
       </c>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
@@ -2815,22 +2816,22 @@
         <v>74</v>
       </c>
       <c r="G55" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="19" t="n">
         <f aca="false">SUM(G$51:G55)/COUNT(G$51:G55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="0" t="n">
         <f aca="false">(G55/LOG((C55+1),2))</f>
-        <v>0.386852807234542</v>
+        <v>0.773705614469083</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="19" t="n">
         <f aca="false">(G55/LOG((E55+1),2))</f>
-        <v>0.386852807234542</v>
+        <v>0.773705614469083</v>
       </c>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
@@ -2850,22 +2851,22 @@
         <v>75</v>
       </c>
       <c r="G56" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="19" t="n">
         <f aca="false">SUM(G$51:G56)/COUNT(G$51:G56)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="0" t="n">
         <f aca="false">(G56/LOG((C56+1),2))</f>
-        <v>0.356207187108022</v>
+        <v>0.712414374216044</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="19" t="n">
         <f aca="false">(G56/LOG((E56+1),2))</f>
-        <v>0.356207187108022</v>
+        <v>0.712414374216044</v>
       </c>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
@@ -2889,7 +2890,7 @@
       </c>
       <c r="H57" s="19" t="n">
         <f aca="false">SUM(G$51:G57)/COUNT(G$51:G57)</f>
-        <v>1</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -2924,7 +2925,7 @@
       </c>
       <c r="H58" s="19" t="n">
         <f aca="false">SUM(G$51:G58)/COUNT(G$51:G58)</f>
-        <v>0.875</v>
+        <v>1.625</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -2959,7 +2960,7 @@
       </c>
       <c r="H59" s="19" t="n">
         <f aca="false">SUM(G$51:G59)/COUNT(G$51:G59)</f>
-        <v>0.888888888888889</v>
+        <v>1.55555555555556</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -2994,7 +2995,7 @@
       </c>
       <c r="H60" s="19" t="n">
         <f aca="false">SUM(G$51:G60)/COUNT(G$51:G60)</f>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -3444,11 +3445,11 @@
       </c>
       <c r="I73" s="17" t="n">
         <f aca="false">AVERAGE(H73:H82)</f>
-        <v>0.887380952380952</v>
+        <v>1.22440476190476</v>
       </c>
       <c r="J73" s="17" t="n">
         <f aca="false">SUM(G73:G82)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K73" s="0" t="n">
         <f aca="false">(G73/LOG((C73+1),2))</f>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="L73" s="17" t="n">
         <f aca="false">SUM(K73:K82)</f>
-        <v>3.30466630598741</v>
+        <v>4.62219567129535</v>
       </c>
       <c r="M73" s="19" t="n">
         <f aca="false">(G73/LOG((E73+1),2))</f>
@@ -3464,11 +3465,11 @@
       </c>
       <c r="N73" s="17" t="n">
         <f aca="false">SUM(M73:M82)</f>
-        <v>3.30466630598741</v>
+        <v>5.43559605955887</v>
       </c>
       <c r="O73" s="17" t="n">
         <f aca="false">L73/N73</f>
-        <v>1</v>
+        <v>0.850356726410326</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,22 +3522,22 @@
         <v>94</v>
       </c>
       <c r="G75" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="19" t="n">
         <f aca="false">SUM(G$73:G75)/COUNT(G$73:G75)</f>
-        <v>1</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="0" t="n">
         <f aca="false">(G75/LOG((C75+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="19" t="n">
         <f aca="false">(G75/LOG((E75+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
@@ -3556,22 +3557,22 @@
         <v>95</v>
       </c>
       <c r="G76" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="19" t="n">
         <f aca="false">SUM(G$73:G76)/COUNT(G$73:G76)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="0" t="n">
         <f aca="false">(G76/LOG((C76+1),2))</f>
-        <v>0.430676558073393</v>
+        <v>0.861353116146786</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="19" t="n">
         <f aca="false">(G76/LOG((E76+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
@@ -3591,22 +3592,22 @@
         <v>96</v>
       </c>
       <c r="G77" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="19" t="n">
         <f aca="false">SUM(G$73:G77)/COUNT(G$73:G77)</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="0" t="n">
         <f aca="false">(G77/LOG((C77+1),2))</f>
-        <v>0.386852807234542</v>
+        <v>0.773705614469083</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="19" t="n">
         <f aca="false">(G77/LOG((E77+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
@@ -3630,7 +3631,7 @@
       </c>
       <c r="H78" s="19" t="n">
         <f aca="false">SUM(G$73:G78)/COUNT(G$73:G78)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -3665,7 +3666,7 @@
       </c>
       <c r="H79" s="19" t="n">
         <f aca="false">SUM(G$73:G79)/COUNT(G$73:G79)</f>
-        <v>0.857142857142857</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
@@ -3700,7 +3701,7 @@
       </c>
       <c r="H80" s="19" t="n">
         <f aca="false">SUM(G$73:G80)/COUNT(G$73:G80)</f>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -3735,7 +3736,7 @@
       </c>
       <c r="H81" s="19" t="n">
         <f aca="false">SUM(G$73:G81)/COUNT(G$73:G81)</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
@@ -3770,7 +3771,7 @@
       </c>
       <c r="H82" s="19" t="n">
         <f aca="false">SUM(G$73:G82)/COUNT(G$73:G82)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -3824,39 +3825,39 @@
         <v>103</v>
       </c>
       <c r="G84" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="19" t="n">
         <f aca="false">SUM(G$84:G84)/COUNT(G$84:G84)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" s="17" t="n">
         <f aca="false">AVERAGE(H84:H93)</f>
-        <v>0.716428571428571</v>
+        <v>1.23583333333333</v>
       </c>
       <c r="J84" s="17" t="n">
         <f aca="false">SUM(G84:G93)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K84" s="0" t="n">
         <f aca="false">(G84/LOG((C84+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" s="17" t="n">
         <f aca="false">SUM(K84:K93)</f>
-        <v>3.02278795803308</v>
+        <v>4.96918258839027</v>
       </c>
       <c r="M84" s="19" t="n">
         <f aca="false">(G84/LOG((E84+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N84" s="17" t="n">
         <f aca="false">SUM(M84:M93)</f>
-        <v>3.30466630598741</v>
+        <v>5.29180324666689</v>
       </c>
       <c r="O84" s="17" t="n">
         <f aca="false">L84/N84</f>
-        <v>0.914702931595961</v>
+        <v>0.939033890105451</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,22 +3875,22 @@
         <v>104</v>
       </c>
       <c r="G85" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="19" t="n">
         <f aca="false">SUM(G$84:G85)/COUNT(G$84:G85)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="0" t="n">
         <f aca="false">(G85/LOG((C85+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="19" t="n">
         <f aca="false">(G85/LOG((E85+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
@@ -3913,7 +3914,7 @@
       </c>
       <c r="H86" s="19" t="n">
         <f aca="false">SUM(G$84:G86)/COUNT(G$84:G86)</f>
-        <v>0.666666666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -3948,7 +3949,7 @@
       </c>
       <c r="H87" s="19" t="n">
         <f aca="false">SUM(G$84:G87)/COUNT(G$84:G87)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
@@ -3983,7 +3984,7 @@
       </c>
       <c r="H88" s="19" t="n">
         <f aca="false">SUM(G$84:G88)/COUNT(G$84:G88)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -4018,7 +4019,7 @@
       </c>
       <c r="H89" s="19" t="n">
         <f aca="false">SUM(G$84:G89)/COUNT(G$84:G89)</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
@@ -4053,7 +4054,7 @@
       </c>
       <c r="H90" s="19" t="n">
         <f aca="false">SUM(G$84:G90)/COUNT(G$84:G90)</f>
-        <v>0.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
@@ -4084,22 +4085,22 @@
         <v>110</v>
       </c>
       <c r="G91" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="19" t="n">
         <f aca="false">SUM(G$84:G91)/COUNT(G$84:G91)</f>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="0" t="n">
         <f aca="false">(G91/LOG((C91+1),2))</f>
-        <v>0.315464876785729</v>
+        <v>0.630929753571457</v>
       </c>
       <c r="L91" s="17"/>
       <c r="M91" s="19" t="n">
         <f aca="false">(G91/LOG((E91+1),2))</f>
-        <v>0.356207187108022</v>
+        <v>0.712414374216044</v>
       </c>
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
@@ -4123,7 +4124,7 @@
       </c>
       <c r="H92" s="19" t="n">
         <f aca="false">SUM(G$84:G92)/COUNT(G$84:G92)</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -4158,7 +4159,7 @@
       </c>
       <c r="H93" s="19" t="n">
         <f aca="false">SUM(G$84:G93)/COUNT(G$84:G93)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -4220,11 +4221,11 @@
       </c>
       <c r="I95" s="17" t="n">
         <f aca="false">AVERAGE(H95:H104)</f>
-        <v>1</v>
+        <v>1.14289682539683</v>
       </c>
       <c r="J95" s="17" t="n">
         <f aca="false">SUM(G95:G104)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K95" s="0" t="n">
         <f aca="false">(G95/LOG((C95+1),2))</f>
@@ -4232,7 +4233,7 @@
       </c>
       <c r="L95" s="17" t="n">
         <f aca="false">SUM(K95:K104)</f>
-        <v>4.54355933808835</v>
+        <v>5.04355933808835</v>
       </c>
       <c r="M95" s="19" t="n">
         <f aca="false">(G95/LOG((E95+1),2))</f>
@@ -4240,7 +4241,7 @@
       </c>
       <c r="N95" s="17" t="n">
         <f aca="false">SUM(M95:M104)</f>
-        <v>4.54355933808835</v>
+        <v>5.04355933808835</v>
       </c>
       <c r="O95" s="17" t="n">
         <f aca="false">L95/N95</f>
@@ -4297,22 +4298,22 @@
         <v>92</v>
       </c>
       <c r="G97" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="19" t="n">
         <f aca="false">SUM(G$95:G97)/COUNT(G$95:G97)</f>
-        <v>1</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="0" t="n">
         <f aca="false">(G97/LOG((C97+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L97" s="17"/>
       <c r="M97" s="19" t="n">
         <f aca="false">(G97/LOG((E97+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
@@ -4336,7 +4337,7 @@
       </c>
       <c r="H98" s="19" t="n">
         <f aca="false">SUM(G$95:G98)/COUNT(G$95:G98)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
@@ -4371,7 +4372,7 @@
       </c>
       <c r="H99" s="19" t="n">
         <f aca="false">SUM(G$95:G99)/COUNT(G$95:G99)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -4406,7 +4407,7 @@
       </c>
       <c r="H100" s="19" t="n">
         <f aca="false">SUM(G$95:G100)/COUNT(G$95:G100)</f>
-        <v>1</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
@@ -4441,7 +4442,7 @@
       </c>
       <c r="H101" s="19" t="n">
         <f aca="false">SUM(G$95:G101)/COUNT(G$95:G101)</f>
-        <v>1</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="H102" s="19" t="n">
         <f aca="false">SUM(G$95:G102)/COUNT(G$95:G102)</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
@@ -4511,7 +4512,7 @@
       </c>
       <c r="H103" s="19" t="n">
         <f aca="false">SUM(G$95:G103)/COUNT(G$95:G103)</f>
-        <v>1</v>
+        <v>1.11111111111111</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -4546,7 +4547,7 @@
       </c>
       <c r="H104" s="19" t="n">
         <f aca="false">SUM(G$95:G104)/COUNT(G$95:G104)</f>
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
@@ -4608,11 +4609,11 @@
       </c>
       <c r="I106" s="17" t="n">
         <f aca="false">AVERAGE(H106:H115)</f>
-        <v>0.529920634920635</v>
+        <v>0.975277777777778</v>
       </c>
       <c r="J106" s="17" t="n">
         <f aca="false">SUM(G106:G115)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K106" s="0" t="n">
         <f aca="false">(G106/LOG((C106+1),2))</f>
@@ -4620,7 +4621,7 @@
       </c>
       <c r="L106" s="17" t="n">
         <f aca="false">SUM(K106:K115)</f>
-        <v>1.94845911887939</v>
+        <v>3.51006543052424</v>
       </c>
       <c r="M106" s="19" t="n">
         <f aca="false">(G106/LOG((E106+1),2))</f>
@@ -4628,11 +4629,11 @@
       </c>
       <c r="N106" s="17" t="n">
         <f aca="false">SUM(M106:M115)</f>
-        <v>2.44639463035719</v>
+        <v>4.57732438392864</v>
       </c>
       <c r="O106" s="17" t="n">
         <f aca="false">L106/N106</f>
-        <v>0.796461492639439</v>
+        <v>0.766837815307206</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,22 +4651,22 @@
         <v>125</v>
       </c>
       <c r="G107" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" s="19" t="n">
         <f aca="false">SUM(G$106:G107)/COUNT(G$106:G107)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="0" t="n">
         <f aca="false">(G107/LOG((C107+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="19" t="n">
         <f aca="false">(G107/LOG((E107+1),2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
@@ -4685,22 +4686,22 @@
         <v>126</v>
       </c>
       <c r="G108" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="19" t="n">
         <f aca="false">SUM(G$106:G108)/COUNT(G$106:G108)</f>
-        <v>0.666666666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="0" t="n">
         <f aca="false">(G108/LOG((C108+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L108" s="17"/>
       <c r="M108" s="19" t="n">
         <f aca="false">(G108/LOG((E108+1),2))</f>
-        <v>0.630929753571457</v>
+        <v>1.26185950714291</v>
       </c>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
@@ -4720,22 +4721,22 @@
         <v>127</v>
       </c>
       <c r="G109" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" s="19" t="n">
         <f aca="false">SUM(G$106:G109)/COUNT(G$106:G109)</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="0" t="n">
         <f aca="false">(G109/LOG((C109+1),2))</f>
-        <v>0.430676558073393</v>
+        <v>0.861353116146786</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="19" t="n">
         <f aca="false">(G109/LOG((E109+1),2))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
@@ -4759,7 +4760,7 @@
       </c>
       <c r="H110" s="19" t="n">
         <f aca="false">SUM(G$106:G110)/COUNT(G$106:G110)</f>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -4794,7 +4795,7 @@
       </c>
       <c r="H111" s="19" t="n">
         <f aca="false">SUM(G$106:G111)/COUNT(G$106:G111)</f>
-        <v>0.666666666666667</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -4829,7 +4830,7 @@
       </c>
       <c r="H112" s="19" t="n">
         <f aca="false">SUM(G$106:G112)/COUNT(G$106:G112)</f>
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -4864,7 +4865,7 @@
       </c>
       <c r="H113" s="19" t="n">
         <f aca="false">SUM(G$106:G113)/COUNT(G$106:G113)</f>
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
@@ -4899,7 +4900,7 @@
       </c>
       <c r="H114" s="19" t="n">
         <f aca="false">SUM(G$106:G114)/COUNT(G$106:G114)</f>
-        <v>0.444444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
@@ -4934,7 +4935,7 @@
       </c>
       <c r="H115" s="19" t="n">
         <f aca="false">SUM(G$106:G115)/COUNT(G$106:G115)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
